--- a/Currency_Exchange_Details.xlsx
+++ b/Currency_Exchange_Details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="33">
   <si>
     <t>Base_Currency</t>
   </si>
@@ -54,6 +54,63 @@
   </si>
   <si>
     <t>Sun Feb 19 12:28:19 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 14:50:32 IST 2023</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 14:50:45 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 14:50:38 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 14:50:42 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 14:50:29 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 14:50:35 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 14:50:52 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 14:51:31 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 14:51:25 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 14:51:28 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 14:50:48 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 14:51:21 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 14:53:33 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 14:53:46 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 14:53:40 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 14:53:43 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 14:53:30 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 14:53:36 IST 2023</t>
   </si>
 </sst>
 </file>
@@ -114,7 +171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -504,6 +561,258 @@
         <v>11</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.272242</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.701907</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.770683</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.12183</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.014058</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.009198</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.272254</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.688</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.742087</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.072036</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.012082</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.007456</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.673042</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.453488</v>
+      </c>
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.34755</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.932804</v>
+      </c>
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>82.765504</v>
+      </c>
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>134.11504</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Currency_Exchange_Details.xlsx
+++ b/Currency_Exchange_Details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t>Base_Currency</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>Sun Feb 19 18:06:11 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 19:09:04 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 19:09:06 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 19:09:05 IST 2023</t>
+  </si>
+  <si>
+    <t>Sun Feb 19 19:09:02 IST 2023</t>
   </si>
 </sst>
 </file>
@@ -129,7 +141,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -323,6 +335,90 @@
         <v>18</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.673042</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.453488</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.34755</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.932804</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>82.765504</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>134.11504</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Currency_Exchange_Details.xlsx
+++ b/Currency_Exchange_Details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
   <si>
     <t>Base_Currency</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>Sun Feb 19 19:09:02 IST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 09:48:16 IST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 09:48:17 IST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 09:48:15 IST 2023</t>
   </si>
 </sst>
 </file>
@@ -141,7 +150,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -419,6 +428,90 @@
         <v>19</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.673018</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.450705</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.347735</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.93585</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>82.654802</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>134.214964</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
